--- a/COVID19 Files/per_day_cases.xlsx
+++ b/COVID19 Files/per_day_cases.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parulpandey/Desktop/Covid India/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Documents\Python Projects\COVID-19-Data-Analyisis-master\COVID19 Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B613A-AF59-4247-8DBA-9282219B24DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="2740" windowWidth="24840" windowHeight="17500" activeTab="2" xr2:uid="{2AF6CC1B-DC56-F34F-8781-6C31977464DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="India" sheetId="1" r:id="rId1"/>
     <sheet name="Italy" sheetId="2" r:id="rId2"/>
     <sheet name="Korea" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +66,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363945"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,10 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,19 +413,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE73C83-1344-8043-808C-2914A8C63C0B}">
-  <dimension ref="A1:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43860</v>
       </c>
@@ -443,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43861</v>
       </c>
@@ -455,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43862</v>
       </c>
@@ -467,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43863</v>
       </c>
@@ -479,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43864</v>
       </c>
@@ -491,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43865</v>
       </c>
@@ -503,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43866</v>
       </c>
@@ -515,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43867</v>
       </c>
@@ -527,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43868</v>
       </c>
@@ -539,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43869</v>
       </c>
@@ -551,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43870</v>
       </c>
@@ -563,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43871</v>
       </c>
@@ -575,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43872</v>
       </c>
@@ -587,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43873</v>
       </c>
@@ -599,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43874</v>
       </c>
@@ -611,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43875</v>
       </c>
@@ -623,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43876</v>
       </c>
@@ -635,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43877</v>
       </c>
@@ -647,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43878</v>
       </c>
@@ -659,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43879</v>
       </c>
@@ -671,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43880</v>
       </c>
@@ -683,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43881</v>
       </c>
@@ -695,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43882</v>
       </c>
@@ -707,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43883</v>
       </c>
@@ -719,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43884</v>
       </c>
@@ -731,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43885</v>
       </c>
@@ -743,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43886</v>
       </c>
@@ -755,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43887</v>
       </c>
@@ -767,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43888</v>
       </c>
@@ -779,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43889</v>
       </c>
@@ -791,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43890</v>
       </c>
@@ -803,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43891</v>
       </c>
@@ -815,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43892</v>
       </c>
@@ -827,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43893</v>
       </c>
@@ -839,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43894</v>
       </c>
@@ -851,7 +858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43895</v>
       </c>
@@ -863,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43896</v>
       </c>
@@ -875,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43897</v>
       </c>
@@ -887,7 +894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43898</v>
       </c>
@@ -899,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43899</v>
       </c>
@@ -911,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43900</v>
       </c>
@@ -923,7 +930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43901</v>
       </c>
@@ -935,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43902</v>
       </c>
@@ -947,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43903</v>
       </c>
@@ -959,7 +966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43904</v>
       </c>
@@ -974,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43905</v>
       </c>
@@ -989,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43906</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43907</v>
       </c>
@@ -1019,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43908</v>
       </c>
@@ -1034,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43909</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43910</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43911</v>
       </c>
@@ -1079,7 +1086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43912</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43913</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43914</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43915</v>
       </c>
@@ -1139,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43916</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43917</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43918</v>
       </c>
@@ -1184,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43919</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43920</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43921</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43922</v>
       </c>
@@ -1244,7 +1251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43923</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43924</v>
       </c>
@@ -1274,7 +1281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43925</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43926</v>
       </c>
@@ -1304,25 +1311,1212 @@
         <v>22</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B69">
+        <f>SUM(B68+C69)</f>
+        <v>4778</v>
+      </c>
+      <c r="C69">
+        <v>489</v>
+      </c>
+      <c r="D69">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B70">
+        <f>SUM(B69+C70)</f>
+        <v>5351</v>
+      </c>
+      <c r="C70" s="3">
+        <v>573</v>
+      </c>
+      <c r="D70">
+        <f>D69+1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B71">
+        <f>SUM(B70+C71)</f>
+        <v>5916</v>
+      </c>
+      <c r="C71">
+        <v>565</v>
+      </c>
+      <c r="D71">
+        <f>D70+1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B135" si="2">SUM(B71+C72)</f>
+        <v>6725</v>
+      </c>
+      <c r="C72">
+        <v>809</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D135" si="3">D71+1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+      <c r="C73">
+        <v>875</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>8446</v>
+      </c>
+      <c r="C74">
+        <v>846</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>9205</v>
+      </c>
+      <c r="C75">
+        <v>759</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>10453</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1248</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>11487</v>
+      </c>
+      <c r="C77">
+        <v>1034</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>12370</v>
+      </c>
+      <c r="C78">
+        <v>883</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>13430</v>
+      </c>
+      <c r="C79">
+        <v>1060</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>14352</v>
+      </c>
+      <c r="C80">
+        <v>922</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>16365</v>
+      </c>
+      <c r="C81">
+        <v>2013</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>17615</v>
+      </c>
+      <c r="C82">
+        <v>1250</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>18539</v>
+      </c>
+      <c r="C83">
+        <v>924</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>20080</v>
+      </c>
+      <c r="C84">
+        <v>1541</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>21370</v>
+      </c>
+      <c r="C85">
+        <v>1290</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>23039</v>
+      </c>
+      <c r="C86">
+        <v>1669</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>24447</v>
+      </c>
+      <c r="C87">
+        <v>1408</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>26283</v>
+      </c>
+      <c r="C88">
+        <v>1836</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>27890</v>
+      </c>
+      <c r="C89">
+        <v>1607</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>29421</v>
+      </c>
+      <c r="C90">
+        <v>1531</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>31294</v>
+      </c>
+      <c r="C91">
+        <v>1873</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>33032</v>
+      </c>
+      <c r="C92">
+        <v>1738</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>34833</v>
+      </c>
+      <c r="C93">
+        <v>1801</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>37227</v>
+      </c>
+      <c r="C94">
+        <v>2394</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>39669</v>
+      </c>
+      <c r="C95">
+        <v>2442</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>42475</v>
+      </c>
+      <c r="C96">
+        <v>2806</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>46407</v>
+      </c>
+      <c r="C97">
+        <v>3932</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>49370</v>
+      </c>
+      <c r="C98">
+        <v>2963</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>52957</v>
+      </c>
+      <c r="C99">
+        <v>3587</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>56321</v>
+      </c>
+      <c r="C100">
+        <v>3364</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>59665</v>
+      </c>
+      <c r="C101">
+        <v>3344</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>62778</v>
+      </c>
+      <c r="C102">
+        <v>3113</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>67131</v>
+      </c>
+      <c r="C103">
+        <v>4353</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>70738</v>
+      </c>
+      <c r="C104">
+        <v>3607</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>74262</v>
+      </c>
+      <c r="C105">
+        <v>3524</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>78025</v>
+      </c>
+      <c r="C106">
+        <v>3763</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>81967</v>
+      </c>
+      <c r="C107">
+        <v>3942</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>85754</v>
+      </c>
+      <c r="C108">
+        <v>3787</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>90618</v>
+      </c>
+      <c r="C109">
+        <v>4864</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>95668</v>
+      </c>
+      <c r="C110">
+        <v>5050</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>100298</v>
+      </c>
+      <c r="C111">
+        <v>4630</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>106445</v>
+      </c>
+      <c r="C112">
+        <v>6147</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>111998</v>
+      </c>
+      <c r="C113">
+        <v>5553</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>118196</v>
+      </c>
+      <c r="C114">
+        <v>6198</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>124764</v>
+      </c>
+      <c r="C115">
+        <v>6568</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>131393</v>
+      </c>
+      <c r="C116">
+        <v>6629</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>138506</v>
+      </c>
+      <c r="C117">
+        <v>7113</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>144920</v>
+      </c>
+      <c r="C118">
+        <v>6414</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>150763</v>
+      </c>
+      <c r="C119">
+        <v>5843</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>158056</v>
+      </c>
+      <c r="C120">
+        <v>7293</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>165356</v>
+      </c>
+      <c r="C121">
+        <v>7300</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="2"/>
+        <v>173461</v>
+      </c>
+      <c r="C122">
+        <v>8105</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="2"/>
+        <v>181797</v>
+      </c>
+      <c r="C123">
+        <v>8336</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="2"/>
+        <v>190579</v>
+      </c>
+      <c r="C124">
+        <v>8782</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="2"/>
+        <v>198340</v>
+      </c>
+      <c r="C125">
+        <v>7761</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="2"/>
+        <v>207161</v>
+      </c>
+      <c r="C126">
+        <v>8821</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="2"/>
+        <v>216794</v>
+      </c>
+      <c r="C127">
+        <v>9633</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="2"/>
+        <v>226683</v>
+      </c>
+      <c r="C128">
+        <v>9889</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="2"/>
+        <v>236154</v>
+      </c>
+      <c r="C129">
+        <v>9471</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="2"/>
+        <v>246592</v>
+      </c>
+      <c r="C130">
+        <v>10438</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="2"/>
+        <v>257456</v>
+      </c>
+      <c r="C131">
+        <v>10864</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="2"/>
+        <v>265898</v>
+      </c>
+      <c r="C132">
+        <v>8442</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>274750</v>
+      </c>
+      <c r="C133">
+        <v>8852</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>287125</v>
+      </c>
+      <c r="C134">
+        <v>12375</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>298253</v>
+      </c>
+      <c r="C135">
+        <v>11128</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ref="B136:B142" si="4">SUM(B135+C136)</f>
+        <v>309573</v>
+      </c>
+      <c r="C136">
+        <v>11320</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:D142" si="5">D135+1</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="4"/>
+        <v>321596</v>
+      </c>
+      <c r="C137">
+        <v>12023</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="4"/>
+        <v>332753</v>
+      </c>
+      <c r="C138">
+        <v>11157</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="4"/>
+        <v>342996</v>
+      </c>
+      <c r="C139">
+        <v>10243</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="4"/>
+        <v>354131</v>
+      </c>
+      <c r="C140">
+        <v>11135</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="4"/>
+        <v>367234</v>
+      </c>
+      <c r="C141">
+        <v>13103</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="4"/>
+        <v>381061</v>
+      </c>
+      <c r="C142">
+        <v>13827</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526014D6-47D7-9642-9D03-F415267BB89E}">
-  <dimension ref="A1:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63:D68"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +2530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43861</v>
       </c>
@@ -1347,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43862</v>
       </c>
@@ -1359,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43863</v>
       </c>
@@ -1371,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43864</v>
       </c>
@@ -1383,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43865</v>
       </c>
@@ -1395,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43866</v>
       </c>
@@ -1407,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43867</v>
       </c>
@@ -1419,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43868</v>
       </c>
@@ -1431,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43869</v>
       </c>
@@ -1443,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43870</v>
       </c>
@@ -1455,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43871</v>
       </c>
@@ -1467,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43872</v>
       </c>
@@ -1479,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43873</v>
       </c>
@@ -1491,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43874</v>
       </c>
@@ -1503,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43875</v>
       </c>
@@ -1515,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43876</v>
       </c>
@@ -1527,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43876</v>
       </c>
@@ -1539,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43877</v>
       </c>
@@ -1551,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43878</v>
       </c>
@@ -1563,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43879</v>
       </c>
@@ -1575,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43880</v>
       </c>
@@ -1587,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43881</v>
       </c>
@@ -1599,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43882</v>
       </c>
@@ -1611,7 +2805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43883</v>
       </c>
@@ -1623,7 +2817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43884</v>
       </c>
@@ -1638,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43885</v>
       </c>
@@ -1653,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43886</v>
       </c>
@@ -1668,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43887</v>
       </c>
@@ -1683,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43888</v>
       </c>
@@ -1698,7 +2892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43889</v>
       </c>
@@ -1713,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43890</v>
       </c>
@@ -1728,7 +2922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43891</v>
       </c>
@@ -1743,7 +2937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43892</v>
       </c>
@@ -1758,7 +2952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43893</v>
       </c>
@@ -1773,7 +2967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43894</v>
       </c>
@@ -1788,7 +2982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43895</v>
       </c>
@@ -1803,7 +2997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43896</v>
       </c>
@@ -1818,7 +3012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43897</v>
       </c>
@@ -1833,7 +3027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43898</v>
       </c>
@@ -1848,7 +3042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43899</v>
       </c>
@@ -1863,7 +3057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43900</v>
       </c>
@@ -1878,7 +3072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43901</v>
       </c>
@@ -1893,7 +3087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43902</v>
       </c>
@@ -1908,7 +3102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43903</v>
       </c>
@@ -1923,7 +3117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43904</v>
       </c>
@@ -1938,7 +3132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43905</v>
       </c>
@@ -1953,7 +3147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43906</v>
       </c>
@@ -1968,7 +3162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43907</v>
       </c>
@@ -1983,7 +3177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43908</v>
       </c>
@@ -1998,7 +3192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43909</v>
       </c>
@@ -2013,7 +3207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43910</v>
       </c>
@@ -2028,7 +3222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43911</v>
       </c>
@@ -2043,7 +3237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43912</v>
       </c>
@@ -2058,7 +3252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43913</v>
       </c>
@@ -2073,7 +3267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43914</v>
       </c>
@@ -2088,7 +3282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43915</v>
       </c>
@@ -2103,7 +3297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43916</v>
       </c>
@@ -2118,7 +3312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43917</v>
       </c>
@@ -2133,7 +3327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43918</v>
       </c>
@@ -2148,7 +3342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43919</v>
       </c>
@@ -2163,7 +3357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43920</v>
       </c>
@@ -2178,7 +3372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43921</v>
       </c>
@@ -2193,7 +3387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43922</v>
       </c>
@@ -2208,7 +3402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43923</v>
       </c>
@@ -2223,7 +3417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43924</v>
       </c>
@@ -2238,7 +3432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43925</v>
       </c>
@@ -2253,7 +3447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43926</v>
       </c>
@@ -2266,6 +3460,239 @@
       </c>
       <c r="D68">
         <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43927</v>
+      </c>
+      <c r="C69">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C70">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C71">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43930</v>
+      </c>
+      <c r="C72">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43931</v>
+      </c>
+      <c r="C73">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C74">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43969</v>
       </c>
     </row>
   </sheetData>
@@ -2274,19 +3701,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8B6278-1A8E-9D4A-9F54-21D7A8F5A732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43850</v>
       </c>
@@ -2311,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43851</v>
       </c>
@@ -2323,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43852</v>
       </c>
@@ -2335,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43853</v>
       </c>
@@ -2347,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43854</v>
       </c>
@@ -2359,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43855</v>
       </c>
@@ -2371,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43856</v>
       </c>
@@ -2383,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43857</v>
       </c>
@@ -2395,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43858</v>
       </c>
@@ -2407,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43859</v>
       </c>
@@ -2419,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43860</v>
       </c>
@@ -2431,7 +3858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43861</v>
       </c>
@@ -2443,7 +3870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43862</v>
       </c>
@@ -2455,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43863</v>
       </c>
@@ -2467,7 +3894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43864</v>
       </c>
@@ -2479,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43865</v>
       </c>
@@ -2491,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43866</v>
       </c>
@@ -2503,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43867</v>
       </c>
@@ -2515,7 +3942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43868</v>
       </c>
@@ -2527,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43869</v>
       </c>
@@ -2539,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43870</v>
       </c>
@@ -2551,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43871</v>
       </c>
@@ -2563,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43872</v>
       </c>
@@ -2575,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43873</v>
       </c>
@@ -2587,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43874</v>
       </c>
@@ -2599,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43875</v>
       </c>
@@ -2611,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43876</v>
       </c>
@@ -2623,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43877</v>
       </c>
@@ -2635,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43878</v>
       </c>
@@ -2647,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43879</v>
       </c>
@@ -2659,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43880</v>
       </c>
@@ -2671,7 +4098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43881</v>
       </c>
@@ -2686,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43882</v>
       </c>
@@ -2701,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43883</v>
       </c>
@@ -2716,7 +4143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43884</v>
       </c>
@@ -2731,7 +4158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43885</v>
       </c>
@@ -2746,7 +4173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43886</v>
       </c>
@@ -2761,7 +4188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43887</v>
       </c>
@@ -2776,7 +4203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43888</v>
       </c>
@@ -2791,7 +4218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43889</v>
       </c>
@@ -2806,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43890</v>
       </c>
@@ -2821,7 +4248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43891</v>
       </c>
@@ -2836,7 +4263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43892</v>
       </c>
@@ -2851,7 +4278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43893</v>
       </c>
@@ -2866,7 +4293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43894</v>
       </c>
@@ -2881,7 +4308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43895</v>
       </c>
@@ -2896,7 +4323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43896</v>
       </c>
@@ -2911,7 +4338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43897</v>
       </c>
@@ -2926,7 +4353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43898</v>
       </c>
@@ -2941,7 +4368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43899</v>
       </c>
@@ -2956,7 +4383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43900</v>
       </c>
@@ -2971,7 +4398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43901</v>
       </c>
@@ -2986,7 +4413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43902</v>
       </c>
@@ -3001,7 +4428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43903</v>
       </c>
@@ -3016,7 +4443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43904</v>
       </c>
@@ -3031,7 +4458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43905</v>
       </c>
@@ -3046,7 +4473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43906</v>
       </c>
@@ -3061,7 +4488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43907</v>
       </c>
@@ -3076,7 +4503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43908</v>
       </c>
@@ -3091,7 +4518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43909</v>
       </c>
@@ -3106,7 +4533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43910</v>
       </c>
@@ -3121,7 +4548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43911</v>
       </c>
@@ -3136,7 +4563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43912</v>
       </c>
@@ -3151,7 +4578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43913</v>
       </c>
@@ -3166,7 +4593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43914</v>
       </c>
@@ -3181,7 +4608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43915</v>
       </c>
@@ -3196,7 +4623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43916</v>
       </c>
@@ -3211,7 +4638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43917</v>
       </c>
@@ -3226,7 +4653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43918</v>
       </c>
@@ -3241,7 +4668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43919</v>
       </c>
@@ -3256,7 +4683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43920</v>
       </c>
@@ -3271,7 +4698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43921</v>
       </c>
@@ -3286,7 +4713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43922</v>
       </c>
@@ -3301,7 +4728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43923</v>
       </c>
@@ -3316,7 +4743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43924</v>
       </c>
@@ -3331,7 +4758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43925</v>
       </c>
@@ -3346,7 +4773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43926</v>
       </c>

--- a/COVID19 Files/per_day_cases.xlsx
+++ b/COVID19 Files/per_day_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="India" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164:D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2387,14 +2387,14 @@
         <v>43994</v>
       </c>
       <c r="B136">
-        <f t="shared" ref="B136:B142" si="4">SUM(B135+C136)</f>
+        <f t="shared" ref="B136:B166" si="4">SUM(B135+C136)</f>
         <v>309573</v>
       </c>
       <c r="C136">
         <v>11320</v>
       </c>
       <c r="D136">
-        <f t="shared" ref="D136:D142" si="5">D135+1</f>
+        <f t="shared" ref="D136:D166" si="5">D135+1</f>
         <v>90</v>
       </c>
     </row>
@@ -2495,7 +2495,388 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="4"/>
+        <v>395801</v>
+      </c>
+      <c r="C143">
+        <v>14740</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="4"/>
+        <v>411719</v>
+      </c>
+      <c r="C144">
+        <v>15918</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="4"/>
+        <v>426870</v>
+      </c>
+      <c r="C145">
+        <v>15151</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="4"/>
+        <v>440430</v>
+      </c>
+      <c r="C146">
+        <v>13560</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="4"/>
+        <v>456086</v>
+      </c>
+      <c r="C147">
+        <v>15656</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="4"/>
+        <v>472954</v>
+      </c>
+      <c r="C148">
+        <v>16868</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="4"/>
+        <v>491159</v>
+      </c>
+      <c r="C149">
+        <v>18205</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="4"/>
+        <v>509414</v>
+      </c>
+      <c r="C150">
+        <v>18255</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="4"/>
+        <v>529556</v>
+      </c>
+      <c r="C151">
+        <v>20142</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="4"/>
+        <v>549166</v>
+      </c>
+      <c r="C152">
+        <v>19610</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="4"/>
+        <v>567505</v>
+      </c>
+      <c r="C153">
+        <v>18339</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="4"/>
+        <v>585761</v>
+      </c>
+      <c r="C154">
+        <v>18256</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="4"/>
+        <v>605190</v>
+      </c>
+      <c r="C155">
+        <v>19429</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="4"/>
+        <v>627137</v>
+      </c>
+      <c r="C156">
+        <v>21947</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="4"/>
+        <v>649855</v>
+      </c>
+      <c r="C157">
+        <v>22718</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="4"/>
+        <v>673873</v>
+      </c>
+      <c r="C158">
+        <v>24018</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="4"/>
+        <v>697815</v>
+      </c>
+      <c r="C159">
+        <v>23942</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="4"/>
+        <v>720315</v>
+      </c>
+      <c r="C160">
+        <v>22500</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="4"/>
+        <v>743462</v>
+      </c>
+      <c r="C161">
+        <v>23147</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="4"/>
+        <v>769023</v>
+      </c>
+      <c r="C162">
+        <v>25561</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="4"/>
+        <v>794813</v>
+      </c>
+      <c r="C163">
+        <v>25790</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="4"/>
+        <v>822575</v>
+      </c>
+      <c r="C164">
+        <v>27762</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="4"/>
+        <v>850330</v>
+      </c>
+      <c r="C165">
+        <v>27755</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="4"/>
+        <v>879438</v>
+      </c>
+      <c r="C166">
+        <v>29108</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
